--- a/副業紹介サイト設計書.xlsx
+++ b/副業紹介サイト設計書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rooon\OneDrive\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuras\Desktop\ファイル共有\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="760" documentId="10_ncr:8100000_{93759546-6B18-4329-A433-11B4B797C2D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{D7B80C6E-F507-4819-8994-6C2EA3AE6C43}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E558F3-77B9-44A8-909F-9C2C0BE76DD6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9624" tabRatio="1000" firstSheet="14" activeTab="21" xr2:uid="{CFC959FC-48E3-406C-8FDA-EB86332A34C7}"/>
   </bookViews>
@@ -2100,6 +2100,15 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2142,9 +2151,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2152,12 +2158,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8505,380 +8505,380 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="50"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="50"/>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="50"/>
-      <c r="AA4" s="50"/>
-      <c r="AB4" s="50"/>
-      <c r="AC4" s="50"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="50"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="53"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="50"/>
-      <c r="Y6" s="50"/>
-      <c r="Z6" s="50"/>
-      <c r="AA6" s="50"/>
-      <c r="AB6" s="50"/>
-      <c r="AC6" s="50"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="53"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="50"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="53"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="50"/>
-      <c r="AB8" s="50"/>
-      <c r="AC8" s="50"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="52"/>
-      <c r="Z31" s="52"/>
-      <c r="AA31" s="52"/>
-      <c r="AB31" s="52"/>
-      <c r="AC31" s="52"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="55"/>
+      <c r="S31" s="55"/>
+      <c r="T31" s="55"/>
+      <c r="U31" s="55"/>
+      <c r="V31" s="55"/>
+      <c r="W31" s="55"/>
+      <c r="X31" s="55"/>
+      <c r="Y31" s="55"/>
+      <c r="Z31" s="55"/>
+      <c r="AA31" s="55"/>
+      <c r="AB31" s="55"/>
+      <c r="AC31" s="55"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A32" s="52"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="52"/>
-      <c r="V32" s="52"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="52"/>
-      <c r="Y32" s="52"/>
-      <c r="Z32" s="52"/>
-      <c r="AA32" s="52"/>
-      <c r="AB32" s="52"/>
-      <c r="AC32" s="52"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="55"/>
+      <c r="S32" s="55"/>
+      <c r="T32" s="55"/>
+      <c r="U32" s="55"/>
+      <c r="V32" s="55"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="55"/>
+      <c r="Y32" s="55"/>
+      <c r="Z32" s="55"/>
+      <c r="AA32" s="55"/>
+      <c r="AB32" s="55"/>
+      <c r="AC32" s="55"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A33" s="52"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="52"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="52"/>
-      <c r="U33" s="52"/>
-      <c r="V33" s="52"/>
-      <c r="W33" s="52"/>
-      <c r="X33" s="52"/>
-      <c r="Y33" s="52"/>
-      <c r="Z33" s="52"/>
-      <c r="AA33" s="52"/>
-      <c r="AB33" s="52"/>
-      <c r="AC33" s="52"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="55"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="55"/>
+      <c r="S33" s="55"/>
+      <c r="T33" s="55"/>
+      <c r="U33" s="55"/>
+      <c r="V33" s="55"/>
+      <c r="W33" s="55"/>
+      <c r="X33" s="55"/>
+      <c r="Y33" s="55"/>
+      <c r="Z33" s="55"/>
+      <c r="AA33" s="55"/>
+      <c r="AB33" s="55"/>
+      <c r="AC33" s="55"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A34" s="52"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="52"/>
-      <c r="S34" s="52"/>
-      <c r="T34" s="52"/>
-      <c r="U34" s="52"/>
-      <c r="V34" s="52"/>
-      <c r="W34" s="52"/>
-      <c r="X34" s="52"/>
-      <c r="Y34" s="52"/>
-      <c r="Z34" s="52"/>
-      <c r="AA34" s="52"/>
-      <c r="AB34" s="52"/>
-      <c r="AC34" s="52"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="55"/>
+      <c r="S34" s="55"/>
+      <c r="T34" s="55"/>
+      <c r="U34" s="55"/>
+      <c r="V34" s="55"/>
+      <c r="W34" s="55"/>
+      <c r="X34" s="55"/>
+      <c r="Y34" s="55"/>
+      <c r="Z34" s="55"/>
+      <c r="AA34" s="55"/>
+      <c r="AB34" s="55"/>
+      <c r="AC34" s="55"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.45">
-      <c r="A35" s="52"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="52"/>
-      <c r="V35" s="52"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
-      <c r="Y35" s="52"/>
-      <c r="Z35" s="52"/>
-      <c r="AA35" s="52"/>
-      <c r="AB35" s="52"/>
-      <c r="AC35" s="52"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="55"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="55"/>
+      <c r="S35" s="55"/>
+      <c r="T35" s="55"/>
+      <c r="U35" s="55"/>
+      <c r="V35" s="55"/>
+      <c r="W35" s="55"/>
+      <c r="X35" s="55"/>
+      <c r="Y35" s="55"/>
+      <c r="Z35" s="55"/>
+      <c r="AA35" s="55"/>
+      <c r="AB35" s="55"/>
+      <c r="AC35" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -19199,9 +19199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E6CC63-337A-4021-ACF1-2E1D9D7AA0BB}">
   <dimension ref="B2:AB54"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.09765625" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -19345,409 +19343,409 @@
       </c>
     </row>
     <row r="29" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="63"/>
-      <c r="C29" s="64" t="s">
+      <c r="B29" s="49"/>
+      <c r="C29" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="64" t="s">
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="M29" s="65"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="64" t="s">
+      <c r="M29" s="67"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="Q29" s="66"/>
-      <c r="R29" s="64" t="s">
+      <c r="Q29" s="68"/>
+      <c r="R29" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="S29" s="65"/>
-      <c r="T29" s="65"/>
-      <c r="U29" s="65"/>
-      <c r="V29" s="65"/>
-      <c r="W29" s="65"/>
-      <c r="X29" s="65"/>
-      <c r="Y29" s="65"/>
-      <c r="Z29" s="65"/>
-      <c r="AA29" s="65"/>
-      <c r="AB29" s="66"/>
+      <c r="S29" s="67"/>
+      <c r="T29" s="67"/>
+      <c r="U29" s="67"/>
+      <c r="V29" s="67"/>
+      <c r="W29" s="67"/>
+      <c r="X29" s="67"/>
+      <c r="Y29" s="67"/>
+      <c r="Z29" s="67"/>
+      <c r="AA29" s="67"/>
+      <c r="AB29" s="68"/>
     </row>
     <row r="30" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="63">
+      <c r="B30" s="49">
         <v>1</v>
       </c>
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="65"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="64"/>
-      <c r="Q30" s="66"/>
-      <c r="R30" s="64"/>
-      <c r="S30" s="65"/>
-      <c r="T30" s="65"/>
-      <c r="U30" s="65"/>
-      <c r="V30" s="65"/>
-      <c r="W30" s="65"/>
-      <c r="X30" s="65"/>
-      <c r="Y30" s="65"/>
-      <c r="Z30" s="65"/>
-      <c r="AA30" s="65"/>
-      <c r="AB30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="68"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="68"/>
+      <c r="R30" s="66"/>
+      <c r="S30" s="67"/>
+      <c r="T30" s="67"/>
+      <c r="U30" s="67"/>
+      <c r="V30" s="67"/>
+      <c r="W30" s="67"/>
+      <c r="X30" s="67"/>
+      <c r="Y30" s="67"/>
+      <c r="Z30" s="67"/>
+      <c r="AA30" s="67"/>
+      <c r="AB30" s="68"/>
     </row>
     <row r="31" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="63">
+      <c r="B31" s="49">
         <v>2</v>
       </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="65"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="66"/>
-      <c r="R31" s="64"/>
-      <c r="S31" s="65"/>
-      <c r="T31" s="65"/>
-      <c r="U31" s="65"/>
-      <c r="V31" s="65"/>
-      <c r="W31" s="65"/>
-      <c r="X31" s="65"/>
-      <c r="Y31" s="65"/>
-      <c r="Z31" s="65"/>
-      <c r="AA31" s="65"/>
-      <c r="AB31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="68"/>
+      <c r="R31" s="66"/>
+      <c r="S31" s="67"/>
+      <c r="T31" s="67"/>
+      <c r="U31" s="67"/>
+      <c r="V31" s="67"/>
+      <c r="W31" s="67"/>
+      <c r="X31" s="67"/>
+      <c r="Y31" s="67"/>
+      <c r="Z31" s="67"/>
+      <c r="AA31" s="67"/>
+      <c r="AB31" s="68"/>
     </row>
     <row r="32" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="63">
+      <c r="B32" s="49">
         <v>3</v>
       </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="65"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="66"/>
-      <c r="R32" s="64"/>
-      <c r="S32" s="65"/>
-      <c r="T32" s="65"/>
-      <c r="U32" s="65"/>
-      <c r="V32" s="65"/>
-      <c r="W32" s="65"/>
-      <c r="X32" s="65"/>
-      <c r="Y32" s="65"/>
-      <c r="Z32" s="65"/>
-      <c r="AA32" s="65"/>
-      <c r="AB32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="68"/>
+      <c r="R32" s="66"/>
+      <c r="S32" s="67"/>
+      <c r="T32" s="67"/>
+      <c r="U32" s="67"/>
+      <c r="V32" s="67"/>
+      <c r="W32" s="67"/>
+      <c r="X32" s="67"/>
+      <c r="Y32" s="67"/>
+      <c r="Z32" s="67"/>
+      <c r="AA32" s="67"/>
+      <c r="AB32" s="68"/>
     </row>
     <row r="33" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="63">
+      <c r="B33" s="49">
         <v>4</v>
       </c>
-      <c r="C33" s="64"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="64"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="64"/>
-      <c r="Q33" s="66"/>
-      <c r="R33" s="64"/>
-      <c r="S33" s="65"/>
-      <c r="T33" s="65"/>
-      <c r="U33" s="65"/>
-      <c r="V33" s="65"/>
-      <c r="W33" s="65"/>
-      <c r="X33" s="65"/>
-      <c r="Y33" s="65"/>
-      <c r="Z33" s="65"/>
-      <c r="AA33" s="65"/>
-      <c r="AB33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="68"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="67"/>
+      <c r="T33" s="67"/>
+      <c r="U33" s="67"/>
+      <c r="V33" s="67"/>
+      <c r="W33" s="67"/>
+      <c r="X33" s="67"/>
+      <c r="Y33" s="67"/>
+      <c r="Z33" s="67"/>
+      <c r="AA33" s="67"/>
+      <c r="AB33" s="68"/>
     </row>
     <row r="34" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="63">
+      <c r="B34" s="49">
         <v>5</v>
       </c>
-      <c r="C34" s="64"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="65"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="66"/>
-      <c r="R34" s="64"/>
-      <c r="S34" s="65"/>
-      <c r="T34" s="65"/>
-      <c r="U34" s="65"/>
-      <c r="V34" s="65"/>
-      <c r="W34" s="65"/>
-      <c r="X34" s="65"/>
-      <c r="Y34" s="65"/>
-      <c r="Z34" s="65"/>
-      <c r="AA34" s="65"/>
-      <c r="AB34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="68"/>
+      <c r="P34" s="66"/>
+      <c r="Q34" s="68"/>
+      <c r="R34" s="66"/>
+      <c r="S34" s="67"/>
+      <c r="T34" s="67"/>
+      <c r="U34" s="67"/>
+      <c r="V34" s="67"/>
+      <c r="W34" s="67"/>
+      <c r="X34" s="67"/>
+      <c r="Y34" s="67"/>
+      <c r="Z34" s="67"/>
+      <c r="AA34" s="67"/>
+      <c r="AB34" s="68"/>
     </row>
     <row r="35" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="63">
+      <c r="B35" s="49">
         <v>6</v>
       </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="64"/>
-      <c r="Q35" s="66"/>
-      <c r="R35" s="64"/>
-      <c r="S35" s="65"/>
-      <c r="T35" s="65"/>
-      <c r="U35" s="65"/>
-      <c r="V35" s="65"/>
-      <c r="W35" s="65"/>
-      <c r="X35" s="65"/>
-      <c r="Y35" s="65"/>
-      <c r="Z35" s="65"/>
-      <c r="AA35" s="65"/>
-      <c r="AB35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="67"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="66"/>
+      <c r="Q35" s="68"/>
+      <c r="R35" s="66"/>
+      <c r="S35" s="67"/>
+      <c r="T35" s="67"/>
+      <c r="U35" s="67"/>
+      <c r="V35" s="67"/>
+      <c r="W35" s="67"/>
+      <c r="X35" s="67"/>
+      <c r="Y35" s="67"/>
+      <c r="Z35" s="67"/>
+      <c r="AA35" s="67"/>
+      <c r="AB35" s="68"/>
     </row>
     <row r="36" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="63">
+      <c r="B36" s="49">
         <v>7</v>
       </c>
-      <c r="C36" s="64"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="66"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="66"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="66"/>
-      <c r="R36" s="64"/>
-      <c r="S36" s="65"/>
-      <c r="T36" s="65"/>
-      <c r="U36" s="65"/>
-      <c r="V36" s="65"/>
-      <c r="W36" s="65"/>
-      <c r="X36" s="65"/>
-      <c r="Y36" s="65"/>
-      <c r="Z36" s="65"/>
-      <c r="AA36" s="65"/>
-      <c r="AB36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="66"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="67"/>
+      <c r="O36" s="68"/>
+      <c r="P36" s="66"/>
+      <c r="Q36" s="68"/>
+      <c r="R36" s="66"/>
+      <c r="S36" s="67"/>
+      <c r="T36" s="67"/>
+      <c r="U36" s="67"/>
+      <c r="V36" s="67"/>
+      <c r="W36" s="67"/>
+      <c r="X36" s="67"/>
+      <c r="Y36" s="67"/>
+      <c r="Z36" s="67"/>
+      <c r="AA36" s="67"/>
+      <c r="AB36" s="68"/>
     </row>
     <row r="37" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="63">
+      <c r="B37" s="49">
         <v>8</v>
       </c>
-      <c r="C37" s="64"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="65"/>
-      <c r="N37" s="65"/>
-      <c r="O37" s="66"/>
-      <c r="P37" s="64"/>
-      <c r="Q37" s="66"/>
-      <c r="R37" s="64"/>
-      <c r="S37" s="65"/>
-      <c r="T37" s="65"/>
-      <c r="U37" s="65"/>
-      <c r="V37" s="65"/>
-      <c r="W37" s="65"/>
-      <c r="X37" s="65"/>
-      <c r="Y37" s="65"/>
-      <c r="Z37" s="65"/>
-      <c r="AA37" s="65"/>
-      <c r="AB37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="68"/>
+      <c r="P37" s="66"/>
+      <c r="Q37" s="68"/>
+      <c r="R37" s="66"/>
+      <c r="S37" s="67"/>
+      <c r="T37" s="67"/>
+      <c r="U37" s="67"/>
+      <c r="V37" s="67"/>
+      <c r="W37" s="67"/>
+      <c r="X37" s="67"/>
+      <c r="Y37" s="67"/>
+      <c r="Z37" s="67"/>
+      <c r="AA37" s="67"/>
+      <c r="AB37" s="68"/>
     </row>
     <row r="38" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="63">
+      <c r="B38" s="49">
         <v>9</v>
       </c>
-      <c r="C38" s="64"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="66"/>
-      <c r="L38" s="64"/>
-      <c r="M38" s="65"/>
-      <c r="N38" s="65"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="64"/>
-      <c r="Q38" s="66"/>
-      <c r="R38" s="64"/>
-      <c r="S38" s="65"/>
-      <c r="T38" s="65"/>
-      <c r="U38" s="65"/>
-      <c r="V38" s="65"/>
-      <c r="W38" s="65"/>
-      <c r="X38" s="65"/>
-      <c r="Y38" s="65"/>
-      <c r="Z38" s="65"/>
-      <c r="AA38" s="65"/>
-      <c r="AB38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="67"/>
+      <c r="O38" s="68"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="68"/>
+      <c r="R38" s="66"/>
+      <c r="S38" s="67"/>
+      <c r="T38" s="67"/>
+      <c r="U38" s="67"/>
+      <c r="V38" s="67"/>
+      <c r="W38" s="67"/>
+      <c r="X38" s="67"/>
+      <c r="Y38" s="67"/>
+      <c r="Z38" s="67"/>
+      <c r="AA38" s="67"/>
+      <c r="AB38" s="68"/>
     </row>
     <row r="39" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="63">
+      <c r="B39" s="49">
         <v>10</v>
       </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="64"/>
-      <c r="M39" s="65"/>
-      <c r="N39" s="65"/>
-      <c r="O39" s="66"/>
-      <c r="P39" s="64"/>
-      <c r="Q39" s="66"/>
-      <c r="R39" s="64"/>
-      <c r="S39" s="65"/>
-      <c r="T39" s="65"/>
-      <c r="U39" s="65"/>
-      <c r="V39" s="65"/>
-      <c r="W39" s="65"/>
-      <c r="X39" s="65"/>
-      <c r="Y39" s="65"/>
-      <c r="Z39" s="65"/>
-      <c r="AA39" s="65"/>
-      <c r="AB39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="67"/>
+      <c r="N39" s="67"/>
+      <c r="O39" s="68"/>
+      <c r="P39" s="66"/>
+      <c r="Q39" s="68"/>
+      <c r="R39" s="66"/>
+      <c r="S39" s="67"/>
+      <c r="T39" s="67"/>
+      <c r="U39" s="67"/>
+      <c r="V39" s="67"/>
+      <c r="W39" s="67"/>
+      <c r="X39" s="67"/>
+      <c r="Y39" s="67"/>
+      <c r="Z39" s="67"/>
+      <c r="AA39" s="67"/>
+      <c r="AB39" s="68"/>
     </row>
     <row r="40" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="63"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="64"/>
-      <c r="M40" s="65"/>
-      <c r="N40" s="65"/>
-      <c r="O40" s="66"/>
-      <c r="P40" s="64"/>
-      <c r="Q40" s="66"/>
-      <c r="R40" s="64"/>
-      <c r="S40" s="65"/>
-      <c r="T40" s="65"/>
-      <c r="U40" s="65"/>
-      <c r="V40" s="65"/>
-      <c r="W40" s="65"/>
-      <c r="X40" s="65"/>
-      <c r="Y40" s="65"/>
-      <c r="Z40" s="65"/>
-      <c r="AA40" s="65"/>
-      <c r="AB40" s="66"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="67"/>
+      <c r="O40" s="68"/>
+      <c r="P40" s="66"/>
+      <c r="Q40" s="68"/>
+      <c r="R40" s="66"/>
+      <c r="S40" s="67"/>
+      <c r="T40" s="67"/>
+      <c r="U40" s="67"/>
+      <c r="V40" s="67"/>
+      <c r="W40" s="67"/>
+      <c r="X40" s="67"/>
+      <c r="Y40" s="67"/>
+      <c r="Z40" s="67"/>
+      <c r="AA40" s="67"/>
+      <c r="AB40" s="68"/>
     </row>
     <row r="41" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="3"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="67"/>
-      <c r="M41" s="68"/>
-      <c r="N41" s="68"/>
-      <c r="O41" s="68"/>
-      <c r="P41" s="67"/>
-      <c r="Q41" s="68"/>
-      <c r="R41" s="67"/>
-      <c r="S41" s="68"/>
-      <c r="T41" s="68"/>
-      <c r="U41" s="68"/>
-      <c r="V41" s="68"/>
-      <c r="W41" s="68"/>
-      <c r="X41" s="68"/>
-      <c r="Y41" s="68"/>
-      <c r="Z41" s="68"/>
-      <c r="AA41" s="68"/>
-      <c r="AB41" s="68"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="50"/>
+      <c r="Q41" s="51"/>
+      <c r="R41" s="50"/>
+      <c r="S41" s="51"/>
+      <c r="T41" s="51"/>
+      <c r="U41" s="51"/>
+      <c r="V41" s="51"/>
+      <c r="W41" s="51"/>
+      <c r="X41" s="51"/>
+      <c r="Y41" s="51"/>
+      <c r="Z41" s="51"/>
+      <c r="AA41" s="51"/>
+      <c r="AB41" s="51"/>
     </row>
     <row r="42" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="1" t="s">
@@ -19755,463 +19753,388 @@
       </c>
     </row>
     <row r="43" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="63"/>
-      <c r="C43" s="64" t="s">
+      <c r="B43" s="49"/>
+      <c r="C43" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="66"/>
-      <c r="L43" s="64" t="s">
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="M43" s="65"/>
-      <c r="N43" s="65"/>
-      <c r="O43" s="66"/>
-      <c r="P43" s="64" t="s">
+      <c r="M43" s="67"/>
+      <c r="N43" s="67"/>
+      <c r="O43" s="68"/>
+      <c r="P43" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="Q43" s="66"/>
-      <c r="R43" s="64" t="s">
+      <c r="Q43" s="68"/>
+      <c r="R43" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="S43" s="65"/>
-      <c r="T43" s="65"/>
-      <c r="U43" s="65"/>
-      <c r="V43" s="65"/>
-      <c r="W43" s="65"/>
-      <c r="X43" s="65"/>
-      <c r="Y43" s="65"/>
-      <c r="Z43" s="65"/>
-      <c r="AA43" s="65"/>
-      <c r="AB43" s="66"/>
+      <c r="S43" s="67"/>
+      <c r="T43" s="67"/>
+      <c r="U43" s="67"/>
+      <c r="V43" s="67"/>
+      <c r="W43" s="67"/>
+      <c r="X43" s="67"/>
+      <c r="Y43" s="67"/>
+      <c r="Z43" s="67"/>
+      <c r="AA43" s="67"/>
+      <c r="AB43" s="68"/>
     </row>
     <row r="44" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="63">
+      <c r="B44" s="49">
         <v>1</v>
       </c>
-      <c r="C44" s="64"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="64"/>
-      <c r="M44" s="65"/>
-      <c r="N44" s="65"/>
-      <c r="O44" s="66"/>
-      <c r="P44" s="64"/>
-      <c r="Q44" s="66"/>
-      <c r="R44" s="64"/>
-      <c r="S44" s="65"/>
-      <c r="T44" s="65"/>
-      <c r="U44" s="65"/>
-      <c r="V44" s="65"/>
-      <c r="W44" s="65"/>
-      <c r="X44" s="65"/>
-      <c r="Y44" s="65"/>
-      <c r="Z44" s="65"/>
-      <c r="AA44" s="65"/>
-      <c r="AB44" s="66"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="66"/>
+      <c r="M44" s="67"/>
+      <c r="N44" s="67"/>
+      <c r="O44" s="68"/>
+      <c r="P44" s="66"/>
+      <c r="Q44" s="68"/>
+      <c r="R44" s="66"/>
+      <c r="S44" s="67"/>
+      <c r="T44" s="67"/>
+      <c r="U44" s="67"/>
+      <c r="V44" s="67"/>
+      <c r="W44" s="67"/>
+      <c r="X44" s="67"/>
+      <c r="Y44" s="67"/>
+      <c r="Z44" s="67"/>
+      <c r="AA44" s="67"/>
+      <c r="AB44" s="68"/>
     </row>
     <row r="45" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="63">
+      <c r="B45" s="49">
         <v>2</v>
       </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="65"/>
-      <c r="K45" s="66"/>
-      <c r="L45" s="64"/>
-      <c r="M45" s="65"/>
-      <c r="N45" s="65"/>
-      <c r="O45" s="66"/>
-      <c r="P45" s="64"/>
-      <c r="Q45" s="66"/>
-      <c r="R45" s="64"/>
-      <c r="S45" s="65"/>
-      <c r="T45" s="65"/>
-      <c r="U45" s="65"/>
-      <c r="V45" s="65"/>
-      <c r="W45" s="65"/>
-      <c r="X45" s="65"/>
-      <c r="Y45" s="65"/>
-      <c r="Z45" s="65"/>
-      <c r="AA45" s="65"/>
-      <c r="AB45" s="66"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="66"/>
+      <c r="M45" s="67"/>
+      <c r="N45" s="67"/>
+      <c r="O45" s="68"/>
+      <c r="P45" s="66"/>
+      <c r="Q45" s="68"/>
+      <c r="R45" s="66"/>
+      <c r="S45" s="67"/>
+      <c r="T45" s="67"/>
+      <c r="U45" s="67"/>
+      <c r="V45" s="67"/>
+      <c r="W45" s="67"/>
+      <c r="X45" s="67"/>
+      <c r="Y45" s="67"/>
+      <c r="Z45" s="67"/>
+      <c r="AA45" s="67"/>
+      <c r="AB45" s="68"/>
     </row>
     <row r="46" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="63">
+      <c r="B46" s="49">
         <v>3</v>
       </c>
-      <c r="C46" s="64"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="66"/>
-      <c r="L46" s="64"/>
-      <c r="M46" s="65"/>
-      <c r="N46" s="65"/>
-      <c r="O46" s="66"/>
-      <c r="P46" s="64"/>
-      <c r="Q46" s="66"/>
-      <c r="R46" s="64"/>
-      <c r="S46" s="65"/>
-      <c r="T46" s="65"/>
-      <c r="U46" s="65"/>
-      <c r="V46" s="65"/>
-      <c r="W46" s="65"/>
-      <c r="X46" s="65"/>
-      <c r="Y46" s="65"/>
-      <c r="Z46" s="65"/>
-      <c r="AA46" s="65"/>
-      <c r="AB46" s="66"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="66"/>
+      <c r="M46" s="67"/>
+      <c r="N46" s="67"/>
+      <c r="O46" s="68"/>
+      <c r="P46" s="66"/>
+      <c r="Q46" s="68"/>
+      <c r="R46" s="66"/>
+      <c r="S46" s="67"/>
+      <c r="T46" s="67"/>
+      <c r="U46" s="67"/>
+      <c r="V46" s="67"/>
+      <c r="W46" s="67"/>
+      <c r="X46" s="67"/>
+      <c r="Y46" s="67"/>
+      <c r="Z46" s="67"/>
+      <c r="AA46" s="67"/>
+      <c r="AB46" s="68"/>
     </row>
     <row r="47" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="63">
+      <c r="B47" s="49">
         <v>4</v>
       </c>
-      <c r="C47" s="64"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="66"/>
-      <c r="L47" s="64"/>
-      <c r="M47" s="65"/>
-      <c r="N47" s="65"/>
-      <c r="O47" s="66"/>
-      <c r="P47" s="64"/>
-      <c r="Q47" s="66"/>
-      <c r="R47" s="64"/>
-      <c r="S47" s="65"/>
-      <c r="T47" s="65"/>
-      <c r="U47" s="65"/>
-      <c r="V47" s="65"/>
-      <c r="W47" s="65"/>
-      <c r="X47" s="65"/>
-      <c r="Y47" s="65"/>
-      <c r="Z47" s="65"/>
-      <c r="AA47" s="65"/>
-      <c r="AB47" s="66"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="66"/>
+      <c r="M47" s="67"/>
+      <c r="N47" s="67"/>
+      <c r="O47" s="68"/>
+      <c r="P47" s="66"/>
+      <c r="Q47" s="68"/>
+      <c r="R47" s="66"/>
+      <c r="S47" s="67"/>
+      <c r="T47" s="67"/>
+      <c r="U47" s="67"/>
+      <c r="V47" s="67"/>
+      <c r="W47" s="67"/>
+      <c r="X47" s="67"/>
+      <c r="Y47" s="67"/>
+      <c r="Z47" s="67"/>
+      <c r="AA47" s="67"/>
+      <c r="AB47" s="68"/>
     </row>
     <row r="48" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="63">
+      <c r="B48" s="49">
         <v>5</v>
       </c>
-      <c r="C48" s="64"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="66"/>
-      <c r="L48" s="64"/>
-      <c r="M48" s="65"/>
-      <c r="N48" s="65"/>
-      <c r="O48" s="66"/>
-      <c r="P48" s="64"/>
-      <c r="Q48" s="66"/>
-      <c r="R48" s="64"/>
-      <c r="S48" s="65"/>
-      <c r="T48" s="65"/>
-      <c r="U48" s="65"/>
-      <c r="V48" s="65"/>
-      <c r="W48" s="65"/>
-      <c r="X48" s="65"/>
-      <c r="Y48" s="65"/>
-      <c r="Z48" s="65"/>
-      <c r="AA48" s="65"/>
-      <c r="AB48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="67"/>
+      <c r="N48" s="67"/>
+      <c r="O48" s="68"/>
+      <c r="P48" s="66"/>
+      <c r="Q48" s="68"/>
+      <c r="R48" s="66"/>
+      <c r="S48" s="67"/>
+      <c r="T48" s="67"/>
+      <c r="U48" s="67"/>
+      <c r="V48" s="67"/>
+      <c r="W48" s="67"/>
+      <c r="X48" s="67"/>
+      <c r="Y48" s="67"/>
+      <c r="Z48" s="67"/>
+      <c r="AA48" s="67"/>
+      <c r="AB48" s="68"/>
     </row>
     <row r="49" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="63">
+      <c r="B49" s="49">
         <v>6</v>
       </c>
-      <c r="C49" s="64"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="65"/>
-      <c r="J49" s="65"/>
-      <c r="K49" s="66"/>
-      <c r="L49" s="64"/>
-      <c r="M49" s="65"/>
-      <c r="N49" s="65"/>
-      <c r="O49" s="66"/>
-      <c r="P49" s="64"/>
-      <c r="Q49" s="66"/>
-      <c r="R49" s="64"/>
-      <c r="S49" s="65"/>
-      <c r="T49" s="65"/>
-      <c r="U49" s="65"/>
-      <c r="V49" s="65"/>
-      <c r="W49" s="65"/>
-      <c r="X49" s="65"/>
-      <c r="Y49" s="65"/>
-      <c r="Z49" s="65"/>
-      <c r="AA49" s="65"/>
-      <c r="AB49" s="66"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="66"/>
+      <c r="M49" s="67"/>
+      <c r="N49" s="67"/>
+      <c r="O49" s="68"/>
+      <c r="P49" s="66"/>
+      <c r="Q49" s="68"/>
+      <c r="R49" s="66"/>
+      <c r="S49" s="67"/>
+      <c r="T49" s="67"/>
+      <c r="U49" s="67"/>
+      <c r="V49" s="67"/>
+      <c r="W49" s="67"/>
+      <c r="X49" s="67"/>
+      <c r="Y49" s="67"/>
+      <c r="Z49" s="67"/>
+      <c r="AA49" s="67"/>
+      <c r="AB49" s="68"/>
     </row>
     <row r="50" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="63">
+      <c r="B50" s="49">
         <v>7</v>
       </c>
-      <c r="C50" s="64"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="65"/>
-      <c r="I50" s="65"/>
-      <c r="J50" s="65"/>
-      <c r="K50" s="66"/>
-      <c r="L50" s="64"/>
-      <c r="M50" s="65"/>
-      <c r="N50" s="65"/>
-      <c r="O50" s="66"/>
-      <c r="P50" s="64"/>
-      <c r="Q50" s="66"/>
-      <c r="R50" s="64"/>
-      <c r="S50" s="65"/>
-      <c r="T50" s="65"/>
-      <c r="U50" s="65"/>
-      <c r="V50" s="65"/>
-      <c r="W50" s="65"/>
-      <c r="X50" s="65"/>
-      <c r="Y50" s="65"/>
-      <c r="Z50" s="65"/>
-      <c r="AA50" s="65"/>
-      <c r="AB50" s="66"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="67"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="67"/>
+      <c r="K50" s="68"/>
+      <c r="L50" s="66"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="67"/>
+      <c r="O50" s="68"/>
+      <c r="P50" s="66"/>
+      <c r="Q50" s="68"/>
+      <c r="R50" s="66"/>
+      <c r="S50" s="67"/>
+      <c r="T50" s="67"/>
+      <c r="U50" s="67"/>
+      <c r="V50" s="67"/>
+      <c r="W50" s="67"/>
+      <c r="X50" s="67"/>
+      <c r="Y50" s="67"/>
+      <c r="Z50" s="67"/>
+      <c r="AA50" s="67"/>
+      <c r="AB50" s="68"/>
     </row>
     <row r="51" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="63">
+      <c r="B51" s="49">
         <v>8</v>
       </c>
-      <c r="C51" s="64"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="65"/>
-      <c r="K51" s="66"/>
-      <c r="L51" s="64"/>
-      <c r="M51" s="65"/>
-      <c r="N51" s="65"/>
-      <c r="O51" s="66"/>
-      <c r="P51" s="64"/>
-      <c r="Q51" s="66"/>
-      <c r="R51" s="64"/>
-      <c r="S51" s="65"/>
-      <c r="T51" s="65"/>
-      <c r="U51" s="65"/>
-      <c r="V51" s="65"/>
-      <c r="W51" s="65"/>
-      <c r="X51" s="65"/>
-      <c r="Y51" s="65"/>
-      <c r="Z51" s="65"/>
-      <c r="AA51" s="65"/>
-      <c r="AB51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="68"/>
+      <c r="L51" s="66"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="67"/>
+      <c r="O51" s="68"/>
+      <c r="P51" s="66"/>
+      <c r="Q51" s="68"/>
+      <c r="R51" s="66"/>
+      <c r="S51" s="67"/>
+      <c r="T51" s="67"/>
+      <c r="U51" s="67"/>
+      <c r="V51" s="67"/>
+      <c r="W51" s="67"/>
+      <c r="X51" s="67"/>
+      <c r="Y51" s="67"/>
+      <c r="Z51" s="67"/>
+      <c r="AA51" s="67"/>
+      <c r="AB51" s="68"/>
     </row>
     <row r="52" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="63">
+      <c r="B52" s="49">
         <v>9</v>
       </c>
-      <c r="C52" s="64"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="65"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="66"/>
-      <c r="L52" s="64"/>
-      <c r="M52" s="65"/>
-      <c r="N52" s="65"/>
-      <c r="O52" s="66"/>
-      <c r="P52" s="64"/>
-      <c r="Q52" s="66"/>
-      <c r="R52" s="64"/>
-      <c r="S52" s="65"/>
-      <c r="T52" s="65"/>
-      <c r="U52" s="65"/>
-      <c r="V52" s="65"/>
-      <c r="W52" s="65"/>
-      <c r="X52" s="65"/>
-      <c r="Y52" s="65"/>
-      <c r="Z52" s="65"/>
-      <c r="AA52" s="65"/>
-      <c r="AB52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="67"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="67"/>
+      <c r="J52" s="67"/>
+      <c r="K52" s="68"/>
+      <c r="L52" s="66"/>
+      <c r="M52" s="67"/>
+      <c r="N52" s="67"/>
+      <c r="O52" s="68"/>
+      <c r="P52" s="66"/>
+      <c r="Q52" s="68"/>
+      <c r="R52" s="66"/>
+      <c r="S52" s="67"/>
+      <c r="T52" s="67"/>
+      <c r="U52" s="67"/>
+      <c r="V52" s="67"/>
+      <c r="W52" s="67"/>
+      <c r="X52" s="67"/>
+      <c r="Y52" s="67"/>
+      <c r="Z52" s="67"/>
+      <c r="AA52" s="67"/>
+      <c r="AB52" s="68"/>
     </row>
     <row r="53" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="63">
+      <c r="B53" s="49">
         <v>10</v>
       </c>
-      <c r="C53" s="64"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="65"/>
-      <c r="J53" s="65"/>
-      <c r="K53" s="66"/>
-      <c r="L53" s="64"/>
-      <c r="M53" s="65"/>
-      <c r="N53" s="65"/>
-      <c r="O53" s="66"/>
-      <c r="P53" s="64"/>
-      <c r="Q53" s="66"/>
-      <c r="R53" s="64"/>
-      <c r="S53" s="65"/>
-      <c r="T53" s="65"/>
-      <c r="U53" s="65"/>
-      <c r="V53" s="65"/>
-      <c r="W53" s="65"/>
-      <c r="X53" s="65"/>
-      <c r="Y53" s="65"/>
-      <c r="Z53" s="65"/>
-      <c r="AA53" s="65"/>
-      <c r="AB53" s="66"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="67"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="67"/>
+      <c r="K53" s="68"/>
+      <c r="L53" s="66"/>
+      <c r="M53" s="67"/>
+      <c r="N53" s="67"/>
+      <c r="O53" s="68"/>
+      <c r="P53" s="66"/>
+      <c r="Q53" s="68"/>
+      <c r="R53" s="66"/>
+      <c r="S53" s="67"/>
+      <c r="T53" s="67"/>
+      <c r="U53" s="67"/>
+      <c r="V53" s="67"/>
+      <c r="W53" s="67"/>
+      <c r="X53" s="67"/>
+      <c r="Y53" s="67"/>
+      <c r="Z53" s="67"/>
+      <c r="AA53" s="67"/>
+      <c r="AB53" s="68"/>
     </row>
     <row r="54" spans="2:28" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="63"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="65"/>
-      <c r="J54" s="65"/>
-      <c r="K54" s="66"/>
-      <c r="L54" s="64"/>
-      <c r="M54" s="65"/>
-      <c r="N54" s="65"/>
-      <c r="O54" s="66"/>
-      <c r="P54" s="64"/>
-      <c r="Q54" s="66"/>
-      <c r="R54" s="64"/>
-      <c r="S54" s="65"/>
-      <c r="T54" s="65"/>
-      <c r="U54" s="65"/>
-      <c r="V54" s="65"/>
-      <c r="W54" s="65"/>
-      <c r="X54" s="65"/>
-      <c r="Y54" s="65"/>
-      <c r="Z54" s="65"/>
-      <c r="AA54" s="65"/>
-      <c r="AB54" s="66"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="66"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="67"/>
+      <c r="K54" s="68"/>
+      <c r="L54" s="66"/>
+      <c r="M54" s="67"/>
+      <c r="N54" s="67"/>
+      <c r="O54" s="68"/>
+      <c r="P54" s="66"/>
+      <c r="Q54" s="68"/>
+      <c r="R54" s="66"/>
+      <c r="S54" s="67"/>
+      <c r="T54" s="67"/>
+      <c r="U54" s="67"/>
+      <c r="V54" s="67"/>
+      <c r="W54" s="67"/>
+      <c r="X54" s="67"/>
+      <c r="Y54" s="67"/>
+      <c r="Z54" s="67"/>
+      <c r="AA54" s="67"/>
+      <c r="AB54" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="C39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="R39:AB39"/>
-    <mergeCell ref="C40:K40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="R40:AB40"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="R37:AB37"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="R38:AB38"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="R35:AB35"/>
-    <mergeCell ref="C36:K36"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="R36:AB36"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="R33:AB33"/>
-    <mergeCell ref="C34:K34"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="R34:AB34"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="R31:AB31"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R32:AB32"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:AB29"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:AB30"/>
-    <mergeCell ref="C50:K50"/>
-    <mergeCell ref="C51:K51"/>
-    <mergeCell ref="C52:K52"/>
-    <mergeCell ref="C53:K53"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="C31:K31"/>
-    <mergeCell ref="C33:K33"/>
-    <mergeCell ref="C35:K35"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="C44:K44"/>
-    <mergeCell ref="C45:K45"/>
-    <mergeCell ref="C46:K46"/>
-    <mergeCell ref="C47:K47"/>
-    <mergeCell ref="C48:K48"/>
-    <mergeCell ref="C49:K49"/>
-    <mergeCell ref="L49:O49"/>
-    <mergeCell ref="L50:O50"/>
-    <mergeCell ref="L51:O51"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="L53:O53"/>
-    <mergeCell ref="L54:O54"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="L48:O48"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="R50:AB50"/>
+    <mergeCell ref="R51:AB51"/>
+    <mergeCell ref="R52:AB52"/>
+    <mergeCell ref="R53:AB53"/>
+    <mergeCell ref="R54:AB54"/>
     <mergeCell ref="P49:Q49"/>
     <mergeCell ref="C43:K43"/>
     <mergeCell ref="L43:O43"/>
@@ -20223,11 +20146,86 @@
     <mergeCell ref="R47:AB47"/>
     <mergeCell ref="R48:AB48"/>
     <mergeCell ref="R49:AB49"/>
-    <mergeCell ref="R50:AB50"/>
-    <mergeCell ref="R51:AB51"/>
-    <mergeCell ref="R52:AB52"/>
-    <mergeCell ref="R53:AB53"/>
-    <mergeCell ref="R54:AB54"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="L48:O48"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="L54:O54"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="C49:K49"/>
+    <mergeCell ref="L49:O49"/>
+    <mergeCell ref="L50:O50"/>
+    <mergeCell ref="L51:O51"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="C44:K44"/>
+    <mergeCell ref="C45:K45"/>
+    <mergeCell ref="C46:K46"/>
+    <mergeCell ref="C47:K47"/>
+    <mergeCell ref="C48:K48"/>
+    <mergeCell ref="C50:K50"/>
+    <mergeCell ref="C51:K51"/>
+    <mergeCell ref="C52:K52"/>
+    <mergeCell ref="C53:K53"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:AB29"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:AB30"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:AB31"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:AB32"/>
+    <mergeCell ref="C31:K31"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:AB33"/>
+    <mergeCell ref="C34:K34"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:AB34"/>
+    <mergeCell ref="C33:K33"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="R35:AB35"/>
+    <mergeCell ref="C36:K36"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="R36:AB36"/>
+    <mergeCell ref="C35:K35"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="R37:AB37"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:AB38"/>
+    <mergeCell ref="C37:K37"/>
+    <mergeCell ref="C39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="R39:AB39"/>
+    <mergeCell ref="C40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:AB40"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20313,13 +20311,13 @@
       </c>
     </row>
     <row r="6" spans="2:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -20336,11 +20334,11 @@
       </c>
     </row>
     <row r="7" spans="2:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="63"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -20378,22 +20376,22 @@
       <c r="D9" s="9"/>
       <c r="E9" s="12"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="54"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="56"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="59"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="53" t="s">
+      <c r="N9" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="54"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="56"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="59"/>
       <c r="AI9" s="29"/>
     </row>
     <row r="10" spans="2:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20401,18 +20399,18 @@
       <c r="D10" s="9"/>
       <c r="E10" s="14"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="63"/>
       <c r="L10" s="14"/>
       <c r="M10" s="16"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="63"/>
       <c r="AI10" s="29"/>
     </row>
     <row r="11" spans="2:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20446,22 +20444,22 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="24"/>
-      <c r="N12" s="53" t="s">
+      <c r="N12" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="61"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="64"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="53" t="s">
+      <c r="U12" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="V12" s="54"/>
-      <c r="W12" s="55"/>
-      <c r="X12" s="55"/>
-      <c r="Y12" s="56"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="59"/>
       <c r="AI12" s="29"/>
     </row>
     <row r="13" spans="2:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20476,18 +20474,18 @@
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="16"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="62"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="65"/>
       <c r="S13" s="6"/>
       <c r="T13" s="7"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="60"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="63"/>
       <c r="AI13" s="29"/>
     </row>
     <row r="14" spans="2:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20530,22 +20528,22 @@
       <c r="M15" s="24"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="53" t="s">
+      <c r="U15" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="V15" s="54"/>
-      <c r="W15" s="54"/>
-      <c r="X15" s="54"/>
-      <c r="Y15" s="61"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="64"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
-      <c r="AB15" s="53" t="s">
+      <c r="AB15" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="AC15" s="54"/>
-      <c r="AD15" s="55"/>
-      <c r="AE15" s="55"/>
-      <c r="AF15" s="56"/>
+      <c r="AC15" s="57"/>
+      <c r="AD15" s="58"/>
+      <c r="AE15" s="58"/>
+      <c r="AF15" s="59"/>
       <c r="AI15" s="29"/>
     </row>
     <row r="16" spans="2:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20567,18 +20565,18 @@
       <c r="R16" s="7"/>
       <c r="S16" s="8"/>
       <c r="T16" s="7"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="58"/>
-      <c r="Y16" s="62"/>
+      <c r="U16" s="60"/>
+      <c r="V16" s="61"/>
+      <c r="W16" s="61"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="65"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
-      <c r="AB16" s="57"/>
-      <c r="AC16" s="58"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="60"/>
+      <c r="AB16" s="60"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="62"/>
+      <c r="AE16" s="62"/>
+      <c r="AF16" s="63"/>
       <c r="AI16" s="29"/>
     </row>
     <row r="17" spans="3:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20620,22 +20618,22 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="12"/>
-      <c r="N18" s="53" t="s">
+      <c r="N18" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="O18" s="54"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="56"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="59"/>
       <c r="S18" s="18"/>
       <c r="AA18" s="4"/>
-      <c r="AB18" s="53" t="s">
+      <c r="AB18" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="AC18" s="54"/>
-      <c r="AD18" s="55"/>
-      <c r="AE18" s="55"/>
-      <c r="AF18" s="56"/>
+      <c r="AC18" s="57"/>
+      <c r="AD18" s="58"/>
+      <c r="AE18" s="58"/>
+      <c r="AF18" s="59"/>
       <c r="AI18" s="29"/>
     </row>
     <row r="19" spans="3:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20650,16 +20648,16 @@
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="15"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="60"/>
-      <c r="AB19" s="57"/>
-      <c r="AC19" s="58"/>
-      <c r="AD19" s="59"/>
-      <c r="AE19" s="59"/>
-      <c r="AF19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="63"/>
+      <c r="AB19" s="60"/>
+      <c r="AC19" s="61"/>
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="62"/>
+      <c r="AF19" s="63"/>
       <c r="AI19" s="29"/>
     </row>
     <row r="20" spans="3:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20678,22 +20676,22 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="53" t="s">
+      <c r="N21" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="61"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="64"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
-      <c r="U21" s="53" t="s">
+      <c r="U21" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="V21" s="54"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="55"/>
-      <c r="Y21" s="56"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="58"/>
+      <c r="Y21" s="59"/>
       <c r="AI21" s="29"/>
     </row>
     <row r="22" spans="3:35" x14ac:dyDescent="0.45">
@@ -20708,18 +20706,18 @@
       <c r="K22" s="23"/>
       <c r="L22" s="23"/>
       <c r="M22" s="15"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="62"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="65"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
-      <c r="U22" s="57"/>
-      <c r="V22" s="58"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="60"/>
+      <c r="U22" s="60"/>
+      <c r="V22" s="61"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="63"/>
       <c r="AI22" s="29"/>
     </row>
     <row r="23" spans="3:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20727,13 +20725,13 @@
       <c r="D23" s="11"/>
       <c r="E23" s="10"/>
       <c r="F23" s="24"/>
-      <c r="G23" s="53" t="s">
+      <c r="G23" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="54"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="56"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
       <c r="L23" s="4"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
@@ -20749,32 +20747,32 @@
       <c r="D24" s="9"/>
       <c r="E24" s="10"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="63"/>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
       <c r="T24" s="4"/>
-      <c r="U24" s="53" t="s">
+      <c r="U24" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="V24" s="54"/>
-      <c r="W24" s="55"/>
-      <c r="X24" s="55"/>
-      <c r="Y24" s="56"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="58"/>
+      <c r="X24" s="58"/>
+      <c r="Y24" s="59"/>
       <c r="Z24" s="4"/>
       <c r="AA24" s="11"/>
-      <c r="AB24" s="53" t="s">
+      <c r="AB24" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="AC24" s="54"/>
-      <c r="AD24" s="54"/>
-      <c r="AE24" s="54"/>
-      <c r="AF24" s="61"/>
+      <c r="AC24" s="57"/>
+      <c r="AD24" s="57"/>
+      <c r="AE24" s="57"/>
+      <c r="AF24" s="64"/>
       <c r="AI24" s="29"/>
     </row>
     <row r="25" spans="3:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20792,17 +20790,17 @@
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
       <c r="T25" s="6"/>
-      <c r="U25" s="57"/>
-      <c r="V25" s="58"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="60"/>
+      <c r="U25" s="60"/>
+      <c r="V25" s="61"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="63"/>
       <c r="AA25" s="7"/>
-      <c r="AB25" s="57"/>
-      <c r="AC25" s="58"/>
-      <c r="AD25" s="58"/>
-      <c r="AE25" s="58"/>
-      <c r="AF25" s="62"/>
+      <c r="AB25" s="60"/>
+      <c r="AC25" s="61"/>
+      <c r="AD25" s="61"/>
+      <c r="AE25" s="61"/>
+      <c r="AF25" s="65"/>
       <c r="AI25" s="29"/>
     </row>
     <row r="26" spans="3:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20847,22 +20845,22 @@
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
       <c r="T27" s="4"/>
-      <c r="U27" s="53" t="s">
+      <c r="U27" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="V27" s="54"/>
-      <c r="W27" s="55"/>
-      <c r="X27" s="55"/>
-      <c r="Y27" s="56"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="58"/>
+      <c r="Y27" s="59"/>
       <c r="Z27" s="4"/>
       <c r="AA27" s="36"/>
-      <c r="AB27" s="53" t="s">
+      <c r="AB27" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="AC27" s="54"/>
-      <c r="AD27" s="54"/>
-      <c r="AE27" s="54"/>
-      <c r="AF27" s="61"/>
+      <c r="AC27" s="57"/>
+      <c r="AD27" s="57"/>
+      <c r="AE27" s="57"/>
+      <c r="AF27" s="64"/>
       <c r="AI27" s="29"/>
     </row>
     <row r="28" spans="3:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20880,16 +20878,16 @@
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
       <c r="T28" s="3"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="58"/>
-      <c r="W28" s="59"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="60"/>
-      <c r="AB28" s="57"/>
-      <c r="AC28" s="58"/>
-      <c r="AD28" s="58"/>
-      <c r="AE28" s="58"/>
-      <c r="AF28" s="62"/>
+      <c r="U28" s="60"/>
+      <c r="V28" s="61"/>
+      <c r="W28" s="62"/>
+      <c r="X28" s="62"/>
+      <c r="Y28" s="63"/>
+      <c r="AB28" s="60"/>
+      <c r="AC28" s="61"/>
+      <c r="AD28" s="61"/>
+      <c r="AE28" s="61"/>
+      <c r="AF28" s="65"/>
       <c r="AI28" s="29"/>
     </row>
     <row r="29" spans="3:35" x14ac:dyDescent="0.45">
@@ -20908,31 +20906,31 @@
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
-      <c r="N30" s="53" t="s">
+      <c r="N30" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="O30" s="54"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="56"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="59"/>
       <c r="S30" s="4"/>
       <c r="T30" s="18"/>
-      <c r="U30" s="53" t="s">
+      <c r="U30" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="V30" s="54"/>
-      <c r="W30" s="54"/>
-      <c r="X30" s="54"/>
-      <c r="Y30" s="61"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="57"/>
+      <c r="X30" s="57"/>
+      <c r="Y30" s="64"/>
       <c r="Z30" s="4"/>
       <c r="AA30" s="18"/>
-      <c r="AB30" s="53" t="s">
+      <c r="AB30" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="AC30" s="54"/>
-      <c r="AD30" s="55"/>
-      <c r="AE30" s="55"/>
-      <c r="AF30" s="56"/>
+      <c r="AC30" s="57"/>
+      <c r="AD30" s="58"/>
+      <c r="AE30" s="58"/>
+      <c r="AF30" s="59"/>
       <c r="AI30" s="29"/>
     </row>
     <row r="31" spans="3:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20947,22 +20945,22 @@
       <c r="K31" s="34"/>
       <c r="L31" s="34"/>
       <c r="M31" s="37"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="60"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="62"/>
+      <c r="R31" s="63"/>
       <c r="T31" s="6"/>
-      <c r="U31" s="57"/>
-      <c r="V31" s="58"/>
-      <c r="W31" s="58"/>
-      <c r="X31" s="58"/>
-      <c r="Y31" s="62"/>
-      <c r="AB31" s="57"/>
-      <c r="AC31" s="58"/>
-      <c r="AD31" s="59"/>
-      <c r="AE31" s="59"/>
-      <c r="AF31" s="60"/>
+      <c r="U31" s="60"/>
+      <c r="V31" s="61"/>
+      <c r="W31" s="61"/>
+      <c r="X31" s="61"/>
+      <c r="Y31" s="65"/>
+      <c r="AB31" s="60"/>
+      <c r="AC31" s="61"/>
+      <c r="AD31" s="62"/>
+      <c r="AE31" s="62"/>
+      <c r="AF31" s="63"/>
       <c r="AI31" s="29"/>
     </row>
     <row r="32" spans="3:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -20970,13 +20968,13 @@
       <c r="D32" s="11"/>
       <c r="E32" s="10"/>
       <c r="F32" s="35"/>
-      <c r="G32" s="53" t="s">
+      <c r="G32" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="54"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="56"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="59"/>
       <c r="L32" s="4"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
@@ -20992,23 +20990,23 @@
       <c r="D33" s="9"/>
       <c r="E33" s="10"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="63"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
       <c r="R33" s="11"/>
       <c r="T33" s="4"/>
-      <c r="U33" s="53" t="s">
+      <c r="U33" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="V33" s="54"/>
-      <c r="W33" s="55"/>
-      <c r="X33" s="55"/>
-      <c r="Y33" s="56"/>
+      <c r="V33" s="57"/>
+      <c r="W33" s="58"/>
+      <c r="X33" s="58"/>
+      <c r="Y33" s="59"/>
       <c r="AI33" s="29"/>
     </row>
     <row r="34" spans="3:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -21025,11 +21023,11 @@
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
       <c r="R34" s="11"/>
-      <c r="U34" s="57"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="59"/>
-      <c r="X34" s="59"/>
-      <c r="Y34" s="60"/>
+      <c r="U34" s="60"/>
+      <c r="V34" s="61"/>
+      <c r="W34" s="62"/>
+      <c r="X34" s="62"/>
+      <c r="Y34" s="63"/>
       <c r="AI34" s="29"/>
     </row>
     <row r="35" spans="3:35" x14ac:dyDescent="0.45">
@@ -21048,13 +21046,13 @@
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
-      <c r="N36" s="53" t="s">
+      <c r="N36" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="O36" s="54"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="56"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="58"/>
+      <c r="Q36" s="58"/>
+      <c r="R36" s="59"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="9"/>
@@ -21076,11 +21074,11 @@
       <c r="K37" s="40"/>
       <c r="L37" s="40"/>
       <c r="M37" s="41"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="58"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="60"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="63"/>
       <c r="AI37" s="29"/>
     </row>
     <row r="38" spans="3:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -21088,13 +21086,13 @@
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="42"/>
-      <c r="G38" s="53" t="s">
+      <c r="G38" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="H38" s="54"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="56"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="59"/>
       <c r="L38" s="4"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
@@ -21109,11 +21107,11 @@
       <c r="D39" s="9"/>
       <c r="E39" s="11"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="63"/>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
@@ -21121,23 +21119,23 @@
       <c r="AI39" s="29"/>
     </row>
     <row r="41" spans="3:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C41" s="53" t="s">
+      <c r="C41" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="D41" s="54"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="56"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="59"/>
       <c r="AI41" s="29" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="42" spans="3:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C42" s="57"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="63"/>
       <c r="AI42" s="29"/>
     </row>
     <row r="43" spans="3:35" x14ac:dyDescent="0.45">
@@ -21149,22 +21147,22 @@
       <c r="D44" s="9"/>
       <c r="E44" s="12"/>
       <c r="F44" s="13"/>
-      <c r="G44" s="53" t="s">
+      <c r="G44" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="H44" s="54"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="56"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="59"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
-      <c r="N44" s="53" t="s">
+      <c r="N44" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="O44" s="54"/>
-      <c r="P44" s="55"/>
-      <c r="Q44" s="55"/>
-      <c r="R44" s="56"/>
+      <c r="O44" s="57"/>
+      <c r="P44" s="58"/>
+      <c r="Q44" s="58"/>
+      <c r="R44" s="59"/>
       <c r="AI44" s="29"/>
     </row>
     <row r="45" spans="3:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -21172,18 +21170,18 @@
       <c r="D45" s="9"/>
       <c r="E45" s="14"/>
       <c r="F45" s="9"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="63"/>
       <c r="L45" s="14"/>
       <c r="M45" s="16"/>
-      <c r="N45" s="57"/>
-      <c r="O45" s="58"/>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="59"/>
-      <c r="R45" s="60"/>
+      <c r="N45" s="60"/>
+      <c r="O45" s="61"/>
+      <c r="P45" s="62"/>
+      <c r="Q45" s="62"/>
+      <c r="R45" s="63"/>
       <c r="AI45" s="29"/>
     </row>
     <row r="46" spans="3:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -21201,22 +21199,22 @@
       <c r="K47" s="3"/>
       <c r="L47" s="11"/>
       <c r="M47" s="35"/>
-      <c r="N47" s="53" t="s">
+      <c r="N47" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="O47" s="54"/>
-      <c r="P47" s="55"/>
-      <c r="Q47" s="55"/>
-      <c r="R47" s="56"/>
+      <c r="O47" s="57"/>
+      <c r="P47" s="58"/>
+      <c r="Q47" s="58"/>
+      <c r="R47" s="59"/>
       <c r="S47" s="4"/>
       <c r="T47" s="18"/>
-      <c r="U47" s="53" t="s">
+      <c r="U47" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="V47" s="54"/>
-      <c r="W47" s="55"/>
-      <c r="X47" s="55"/>
-      <c r="Y47" s="56"/>
+      <c r="V47" s="57"/>
+      <c r="W47" s="58"/>
+      <c r="X47" s="58"/>
+      <c r="Y47" s="59"/>
       <c r="AI47" s="29"/>
     </row>
     <row r="48" spans="3:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -21229,16 +21227,16 @@
       <c r="K48" s="3"/>
       <c r="L48" s="11"/>
       <c r="M48" s="16"/>
-      <c r="N48" s="57"/>
-      <c r="O48" s="58"/>
-      <c r="P48" s="59"/>
-      <c r="Q48" s="59"/>
-      <c r="R48" s="60"/>
-      <c r="U48" s="57"/>
-      <c r="V48" s="58"/>
-      <c r="W48" s="59"/>
-      <c r="X48" s="59"/>
-      <c r="Y48" s="60"/>
+      <c r="N48" s="60"/>
+      <c r="O48" s="61"/>
+      <c r="P48" s="62"/>
+      <c r="Q48" s="62"/>
+      <c r="R48" s="63"/>
+      <c r="U48" s="60"/>
+      <c r="V48" s="61"/>
+      <c r="W48" s="62"/>
+      <c r="X48" s="62"/>
+      <c r="Y48" s="63"/>
       <c r="AI48" s="29"/>
     </row>
     <row r="49" spans="3:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -21256,22 +21254,22 @@
       <c r="K50" s="3"/>
       <c r="L50" s="11"/>
       <c r="M50" s="35"/>
-      <c r="N50" s="53" t="s">
+      <c r="N50" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="O50" s="54"/>
-      <c r="P50" s="55"/>
-      <c r="Q50" s="55"/>
-      <c r="R50" s="56"/>
+      <c r="O50" s="57"/>
+      <c r="P50" s="58"/>
+      <c r="Q50" s="58"/>
+      <c r="R50" s="59"/>
       <c r="S50" s="4"/>
       <c r="T50" s="18"/>
-      <c r="U50" s="53" t="s">
+      <c r="U50" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="V50" s="54"/>
-      <c r="W50" s="55"/>
-      <c r="X50" s="55"/>
-      <c r="Y50" s="56"/>
+      <c r="V50" s="57"/>
+      <c r="W50" s="58"/>
+      <c r="X50" s="58"/>
+      <c r="Y50" s="59"/>
       <c r="AI50" s="29"/>
     </row>
     <row r="51" spans="3:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -21284,16 +21282,16 @@
       <c r="K51" s="3"/>
       <c r="L51" s="11"/>
       <c r="M51" s="16"/>
-      <c r="N51" s="57"/>
-      <c r="O51" s="58"/>
-      <c r="P51" s="59"/>
-      <c r="Q51" s="59"/>
-      <c r="R51" s="60"/>
-      <c r="U51" s="57"/>
-      <c r="V51" s="58"/>
-      <c r="W51" s="59"/>
-      <c r="X51" s="59"/>
-      <c r="Y51" s="60"/>
+      <c r="N51" s="60"/>
+      <c r="O51" s="61"/>
+      <c r="P51" s="62"/>
+      <c r="Q51" s="62"/>
+      <c r="R51" s="63"/>
+      <c r="U51" s="60"/>
+      <c r="V51" s="61"/>
+      <c r="W51" s="62"/>
+      <c r="X51" s="62"/>
+      <c r="Y51" s="63"/>
       <c r="AI51" s="29"/>
     </row>
     <row r="52" spans="3:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -21311,22 +21309,22 @@
       <c r="K53" s="3"/>
       <c r="L53" s="11"/>
       <c r="M53" s="35"/>
-      <c r="N53" s="53" t="s">
+      <c r="N53" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="O53" s="54"/>
-      <c r="P53" s="55"/>
-      <c r="Q53" s="55"/>
-      <c r="R53" s="56"/>
+      <c r="O53" s="57"/>
+      <c r="P53" s="58"/>
+      <c r="Q53" s="58"/>
+      <c r="R53" s="59"/>
       <c r="S53" s="4"/>
       <c r="T53" s="18"/>
-      <c r="U53" s="53" t="s">
+      <c r="U53" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="V53" s="54"/>
-      <c r="W53" s="55"/>
-      <c r="X53" s="55"/>
-      <c r="Y53" s="56"/>
+      <c r="V53" s="57"/>
+      <c r="W53" s="58"/>
+      <c r="X53" s="58"/>
+      <c r="Y53" s="59"/>
       <c r="AI53" s="29"/>
     </row>
     <row r="54" spans="3:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -21339,16 +21337,16 @@
       <c r="K54" s="3"/>
       <c r="L54" s="11"/>
       <c r="M54" s="16"/>
-      <c r="N54" s="57"/>
-      <c r="O54" s="58"/>
-      <c r="P54" s="59"/>
-      <c r="Q54" s="59"/>
-      <c r="R54" s="60"/>
-      <c r="U54" s="57"/>
-      <c r="V54" s="58"/>
-      <c r="W54" s="59"/>
-      <c r="X54" s="59"/>
-      <c r="Y54" s="60"/>
+      <c r="N54" s="60"/>
+      <c r="O54" s="61"/>
+      <c r="P54" s="62"/>
+      <c r="Q54" s="62"/>
+      <c r="R54" s="63"/>
+      <c r="U54" s="60"/>
+      <c r="V54" s="61"/>
+      <c r="W54" s="62"/>
+      <c r="X54" s="62"/>
+      <c r="Y54" s="63"/>
       <c r="AI54" s="29"/>
     </row>
     <row r="55" spans="3:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -21366,22 +21364,22 @@
       <c r="K56" s="3"/>
       <c r="L56" s="11"/>
       <c r="M56" s="12"/>
-      <c r="N56" s="53" t="s">
+      <c r="N56" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="O56" s="54"/>
-      <c r="P56" s="55"/>
-      <c r="Q56" s="55"/>
-      <c r="R56" s="56"/>
+      <c r="O56" s="57"/>
+      <c r="P56" s="58"/>
+      <c r="Q56" s="58"/>
+      <c r="R56" s="59"/>
       <c r="S56" s="4"/>
       <c r="T56" s="18"/>
-      <c r="U56" s="53" t="s">
+      <c r="U56" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="V56" s="54"/>
-      <c r="W56" s="55"/>
-      <c r="X56" s="55"/>
-      <c r="Y56" s="56"/>
+      <c r="V56" s="57"/>
+      <c r="W56" s="58"/>
+      <c r="X56" s="58"/>
+      <c r="Y56" s="59"/>
       <c r="AI56" s="29"/>
     </row>
     <row r="57" spans="3:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -21394,16 +21392,16 @@
       <c r="K57" s="3"/>
       <c r="L57" s="11"/>
       <c r="M57" s="15"/>
-      <c r="N57" s="57"/>
-      <c r="O57" s="58"/>
-      <c r="P57" s="59"/>
-      <c r="Q57" s="59"/>
-      <c r="R57" s="60"/>
-      <c r="U57" s="57"/>
-      <c r="V57" s="58"/>
-      <c r="W57" s="59"/>
-      <c r="X57" s="59"/>
-      <c r="Y57" s="60"/>
+      <c r="N57" s="60"/>
+      <c r="O57" s="61"/>
+      <c r="P57" s="62"/>
+      <c r="Q57" s="62"/>
+      <c r="R57" s="63"/>
+      <c r="U57" s="60"/>
+      <c r="V57" s="61"/>
+      <c r="W57" s="62"/>
+      <c r="X57" s="62"/>
+      <c r="Y57" s="63"/>
       <c r="AI57" s="29"/>
     </row>
     <row r="58" spans="3:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -21415,22 +21413,22 @@
       <c r="D59" s="9"/>
       <c r="E59" s="35"/>
       <c r="F59" s="36"/>
-      <c r="G59" s="53" t="s">
+      <c r="G59" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="H59" s="54"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="55"/>
-      <c r="K59" s="56"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="58"/>
+      <c r="J59" s="58"/>
+      <c r="K59" s="59"/>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
-      <c r="N59" s="53" t="s">
+      <c r="N59" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="O59" s="54"/>
-      <c r="P59" s="55"/>
-      <c r="Q59" s="55"/>
-      <c r="R59" s="56"/>
+      <c r="O59" s="57"/>
+      <c r="P59" s="58"/>
+      <c r="Q59" s="58"/>
+      <c r="R59" s="59"/>
       <c r="AI59" s="29"/>
     </row>
     <row r="60" spans="3:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -21438,18 +21436,18 @@
       <c r="D60" s="9"/>
       <c r="E60" s="33"/>
       <c r="F60" s="9"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="58"/>
-      <c r="I60" s="59"/>
-      <c r="J60" s="59"/>
-      <c r="K60" s="60"/>
+      <c r="G60" s="60"/>
+      <c r="H60" s="61"/>
+      <c r="I60" s="62"/>
+      <c r="J60" s="62"/>
+      <c r="K60" s="63"/>
       <c r="L60" s="33"/>
       <c r="M60" s="16"/>
-      <c r="N60" s="57"/>
-      <c r="O60" s="58"/>
-      <c r="P60" s="59"/>
-      <c r="Q60" s="59"/>
-      <c r="R60" s="60"/>
+      <c r="N60" s="60"/>
+      <c r="O60" s="61"/>
+      <c r="P60" s="62"/>
+      <c r="Q60" s="62"/>
+      <c r="R60" s="63"/>
       <c r="AI60" s="29"/>
     </row>
     <row r="61" spans="3:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -21467,22 +21465,22 @@
       <c r="K62" s="3"/>
       <c r="L62" s="11"/>
       <c r="M62" s="35"/>
-      <c r="N62" s="53" t="s">
+      <c r="N62" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="O62" s="54"/>
-      <c r="P62" s="55"/>
-      <c r="Q62" s="55"/>
-      <c r="R62" s="56"/>
+      <c r="O62" s="57"/>
+      <c r="P62" s="58"/>
+      <c r="Q62" s="58"/>
+      <c r="R62" s="59"/>
       <c r="S62" s="4"/>
       <c r="T62" s="18"/>
-      <c r="U62" s="53" t="s">
+      <c r="U62" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="V62" s="54"/>
-      <c r="W62" s="55"/>
-      <c r="X62" s="55"/>
-      <c r="Y62" s="56"/>
+      <c r="V62" s="57"/>
+      <c r="W62" s="58"/>
+      <c r="X62" s="58"/>
+      <c r="Y62" s="59"/>
       <c r="AI62" s="29"/>
     </row>
     <row r="63" spans="3:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -21495,16 +21493,16 @@
       <c r="K63" s="3"/>
       <c r="L63" s="11"/>
       <c r="M63" s="16"/>
-      <c r="N63" s="57"/>
-      <c r="O63" s="58"/>
-      <c r="P63" s="59"/>
-      <c r="Q63" s="59"/>
-      <c r="R63" s="60"/>
-      <c r="U63" s="57"/>
-      <c r="V63" s="58"/>
-      <c r="W63" s="59"/>
-      <c r="X63" s="59"/>
-      <c r="Y63" s="60"/>
+      <c r="N63" s="60"/>
+      <c r="O63" s="61"/>
+      <c r="P63" s="62"/>
+      <c r="Q63" s="62"/>
+      <c r="R63" s="63"/>
+      <c r="U63" s="60"/>
+      <c r="V63" s="61"/>
+      <c r="W63" s="62"/>
+      <c r="X63" s="62"/>
+      <c r="Y63" s="63"/>
       <c r="AI63" s="29"/>
     </row>
     <row r="64" spans="3:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -21522,22 +21520,22 @@
       <c r="K65" s="3"/>
       <c r="L65" s="11"/>
       <c r="M65" s="35"/>
-      <c r="N65" s="53" t="s">
+      <c r="N65" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="O65" s="54"/>
-      <c r="P65" s="55"/>
-      <c r="Q65" s="55"/>
-      <c r="R65" s="56"/>
+      <c r="O65" s="57"/>
+      <c r="P65" s="58"/>
+      <c r="Q65" s="58"/>
+      <c r="R65" s="59"/>
       <c r="S65" s="4"/>
       <c r="T65" s="18"/>
-      <c r="U65" s="53" t="s">
+      <c r="U65" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="V65" s="54"/>
-      <c r="W65" s="55"/>
-      <c r="X65" s="55"/>
-      <c r="Y65" s="56"/>
+      <c r="V65" s="57"/>
+      <c r="W65" s="58"/>
+      <c r="X65" s="58"/>
+      <c r="Y65" s="59"/>
       <c r="AI65" s="29"/>
     </row>
     <row r="66" spans="5:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -21550,16 +21548,16 @@
       <c r="K66" s="3"/>
       <c r="L66" s="11"/>
       <c r="M66" s="16"/>
-      <c r="N66" s="57"/>
-      <c r="O66" s="58"/>
-      <c r="P66" s="59"/>
-      <c r="Q66" s="59"/>
-      <c r="R66" s="60"/>
-      <c r="U66" s="57"/>
-      <c r="V66" s="58"/>
-      <c r="W66" s="59"/>
-      <c r="X66" s="59"/>
-      <c r="Y66" s="60"/>
+      <c r="N66" s="60"/>
+      <c r="O66" s="61"/>
+      <c r="P66" s="62"/>
+      <c r="Q66" s="62"/>
+      <c r="R66" s="63"/>
+      <c r="U66" s="60"/>
+      <c r="V66" s="61"/>
+      <c r="W66" s="62"/>
+      <c r="X66" s="62"/>
+      <c r="Y66" s="63"/>
       <c r="AI66" s="29"/>
     </row>
     <row r="67" spans="5:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -21577,22 +21575,22 @@
       <c r="K68" s="3"/>
       <c r="L68" s="11"/>
       <c r="M68" s="35"/>
-      <c r="N68" s="53" t="s">
+      <c r="N68" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="O68" s="54"/>
-      <c r="P68" s="55"/>
-      <c r="Q68" s="55"/>
-      <c r="R68" s="56"/>
+      <c r="O68" s="57"/>
+      <c r="P68" s="58"/>
+      <c r="Q68" s="58"/>
+      <c r="R68" s="59"/>
       <c r="S68" s="4"/>
       <c r="T68" s="18"/>
-      <c r="U68" s="53" t="s">
+      <c r="U68" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="V68" s="54"/>
-      <c r="W68" s="55"/>
-      <c r="X68" s="55"/>
-      <c r="Y68" s="56"/>
+      <c r="V68" s="57"/>
+      <c r="W68" s="58"/>
+      <c r="X68" s="58"/>
+      <c r="Y68" s="59"/>
       <c r="AI68" s="29"/>
     </row>
     <row r="69" spans="5:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -21605,16 +21603,16 @@
       <c r="K69" s="3"/>
       <c r="L69" s="11"/>
       <c r="M69" s="16"/>
-      <c r="N69" s="57"/>
-      <c r="O69" s="58"/>
-      <c r="P69" s="59"/>
-      <c r="Q69" s="59"/>
-      <c r="R69" s="60"/>
-      <c r="U69" s="57"/>
-      <c r="V69" s="58"/>
-      <c r="W69" s="59"/>
-      <c r="X69" s="59"/>
-      <c r="Y69" s="60"/>
+      <c r="N69" s="60"/>
+      <c r="O69" s="61"/>
+      <c r="P69" s="62"/>
+      <c r="Q69" s="62"/>
+      <c r="R69" s="63"/>
+      <c r="U69" s="60"/>
+      <c r="V69" s="61"/>
+      <c r="W69" s="62"/>
+      <c r="X69" s="62"/>
+      <c r="Y69" s="63"/>
       <c r="AI69" s="29"/>
     </row>
     <row r="70" spans="5:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -21632,22 +21630,22 @@
       <c r="K71" s="3"/>
       <c r="L71" s="11"/>
       <c r="M71" s="35"/>
-      <c r="N71" s="53" t="s">
+      <c r="N71" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="O71" s="54"/>
-      <c r="P71" s="55"/>
-      <c r="Q71" s="55"/>
-      <c r="R71" s="56"/>
+      <c r="O71" s="57"/>
+      <c r="P71" s="58"/>
+      <c r="Q71" s="58"/>
+      <c r="R71" s="59"/>
       <c r="S71" s="4"/>
       <c r="T71" s="18"/>
-      <c r="U71" s="53" t="s">
+      <c r="U71" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="V71" s="54"/>
-      <c r="W71" s="55"/>
-      <c r="X71" s="55"/>
-      <c r="Y71" s="56"/>
+      <c r="V71" s="57"/>
+      <c r="W71" s="58"/>
+      <c r="X71" s="58"/>
+      <c r="Y71" s="59"/>
       <c r="AI71" s="29"/>
     </row>
     <row r="72" spans="5:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -21660,16 +21658,16 @@
       <c r="K72" s="3"/>
       <c r="L72" s="11"/>
       <c r="M72" s="37"/>
-      <c r="N72" s="57"/>
-      <c r="O72" s="58"/>
-      <c r="P72" s="59"/>
-      <c r="Q72" s="59"/>
-      <c r="R72" s="60"/>
-      <c r="U72" s="57"/>
-      <c r="V72" s="58"/>
-      <c r="W72" s="59"/>
-      <c r="X72" s="59"/>
-      <c r="Y72" s="60"/>
+      <c r="N72" s="60"/>
+      <c r="O72" s="61"/>
+      <c r="P72" s="62"/>
+      <c r="Q72" s="62"/>
+      <c r="R72" s="63"/>
+      <c r="U72" s="60"/>
+      <c r="V72" s="61"/>
+      <c r="W72" s="62"/>
+      <c r="X72" s="62"/>
+      <c r="Y72" s="63"/>
       <c r="AI72" s="29"/>
     </row>
     <row r="73" spans="5:35" x14ac:dyDescent="0.45">
@@ -21680,21 +21678,21 @@
     <row r="74" spans="5:35" x14ac:dyDescent="0.45">
       <c r="E74" s="4"/>
       <c r="F74" s="5"/>
-      <c r="G74" s="53" t="s">
+      <c r="G74" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H74" s="54"/>
-      <c r="I74" s="55"/>
-      <c r="J74" s="55"/>
-      <c r="K74" s="56"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="58"/>
+      <c r="J74" s="58"/>
+      <c r="K74" s="59"/>
       <c r="AI74" s="29"/>
     </row>
     <row r="75" spans="5:35" x14ac:dyDescent="0.45">
-      <c r="G75" s="57"/>
-      <c r="H75" s="58"/>
-      <c r="I75" s="59"/>
-      <c r="J75" s="59"/>
-      <c r="K75" s="60"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="61"/>
+      <c r="I75" s="62"/>
+      <c r="J75" s="62"/>
+      <c r="K75" s="63"/>
       <c r="AI75" s="29"/>
     </row>
     <row r="76" spans="5:35" x14ac:dyDescent="0.45">
@@ -21708,25 +21706,16 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="AB18:AF19"/>
-    <mergeCell ref="AB24:AF25"/>
-    <mergeCell ref="AB27:AF28"/>
-    <mergeCell ref="G59:K60"/>
-    <mergeCell ref="N59:R60"/>
-    <mergeCell ref="U12:Y13"/>
-    <mergeCell ref="U15:Y16"/>
-    <mergeCell ref="U24:Y25"/>
-    <mergeCell ref="N50:R51"/>
-    <mergeCell ref="U50:Y51"/>
-    <mergeCell ref="N47:R48"/>
-    <mergeCell ref="C6:G7"/>
-    <mergeCell ref="N9:R10"/>
-    <mergeCell ref="N12:R13"/>
-    <mergeCell ref="G9:K10"/>
-    <mergeCell ref="G44:K45"/>
-    <mergeCell ref="N44:R45"/>
-    <mergeCell ref="N30:R31"/>
-    <mergeCell ref="G32:K33"/>
+    <mergeCell ref="U71:Y72"/>
+    <mergeCell ref="N36:R37"/>
+    <mergeCell ref="G38:K39"/>
+    <mergeCell ref="U30:Y31"/>
+    <mergeCell ref="AB30:AF31"/>
+    <mergeCell ref="U33:Y34"/>
+    <mergeCell ref="N62:R63"/>
+    <mergeCell ref="U62:Y63"/>
+    <mergeCell ref="N65:R66"/>
+    <mergeCell ref="U65:Y66"/>
     <mergeCell ref="AB15:AF16"/>
     <mergeCell ref="G23:K24"/>
     <mergeCell ref="G74:K75"/>
@@ -21743,16 +21732,25 @@
     <mergeCell ref="N68:R69"/>
     <mergeCell ref="U68:Y69"/>
     <mergeCell ref="N71:R72"/>
-    <mergeCell ref="U71:Y72"/>
-    <mergeCell ref="N36:R37"/>
-    <mergeCell ref="G38:K39"/>
-    <mergeCell ref="U30:Y31"/>
-    <mergeCell ref="AB30:AF31"/>
-    <mergeCell ref="U33:Y34"/>
-    <mergeCell ref="N62:R63"/>
-    <mergeCell ref="U62:Y63"/>
-    <mergeCell ref="N65:R66"/>
-    <mergeCell ref="U65:Y66"/>
+    <mergeCell ref="C6:G7"/>
+    <mergeCell ref="N9:R10"/>
+    <mergeCell ref="N12:R13"/>
+    <mergeCell ref="G9:K10"/>
+    <mergeCell ref="G44:K45"/>
+    <mergeCell ref="N44:R45"/>
+    <mergeCell ref="N30:R31"/>
+    <mergeCell ref="G32:K33"/>
+    <mergeCell ref="U12:Y13"/>
+    <mergeCell ref="U15:Y16"/>
+    <mergeCell ref="U24:Y25"/>
+    <mergeCell ref="N50:R51"/>
+    <mergeCell ref="U50:Y51"/>
+    <mergeCell ref="N47:R48"/>
+    <mergeCell ref="AB18:AF19"/>
+    <mergeCell ref="AB24:AF25"/>
+    <mergeCell ref="AB27:AF28"/>
+    <mergeCell ref="G59:K60"/>
+    <mergeCell ref="N59:R60"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
